--- a/p2/docs/al024-testsheet.xlsx
+++ b/p2/docs/al024-testsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guga/ASA2021/p2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5801F38-867E-624F-AE01-0CB0E066A9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0CEF4F-274C-7043-B6E3-6F9DFAC9514A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="860" windowWidth="15100" windowHeight="15980" xr2:uid="{93A3567E-400A-994D-8CA7-9B3B660EFBED}"/>
+    <workbookView xWindow="13700" yWindow="540" windowWidth="15100" windowHeight="15980" xr2:uid="{93A3567E-400A-994D-8CA7-9B3B660EFBED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>Tempo(s)</t>
   </si>
   <si>
-    <t>EV^3</t>
+    <t>EV</t>
   </si>
 </sst>
 </file>
@@ -1679,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCC6576-DAAA-A548-8C09-5A27BE5D3926}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1750,8 +1750,8 @@
         <v>10</v>
       </c>
       <c r="I2" s="10">
-        <f>D2*D2*D2</f>
-        <v>1061208</v>
+        <f>D2*E2</f>
+        <v>380052</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1785,8 +1785,8 @@
         <v>24</v>
       </c>
       <c r="I3" s="10">
-        <f t="shared" ref="I3:I17" si="4">D3*D3*D3</f>
-        <v>8242408</v>
+        <f t="shared" ref="I3:I16" si="4">D3*E3</f>
+        <v>3098276</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1820,8 +1820,8 @@
         <v>42</v>
       </c>
       <c r="I4" s="10">
-        <f>D4*D4*D4</f>
-        <v>27543608</v>
+        <f t="shared" si="4"/>
+        <v>10359204</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="I5" s="10">
         <f t="shared" si="4"/>
-        <v>64964808</v>
+        <v>23816892</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="I6" s="10">
         <f t="shared" si="4"/>
-        <v>126506008</v>
+        <v>48123728</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="I7" s="10">
         <f t="shared" si="4"/>
-        <v>218167208</v>
+        <v>82331928</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="I8" s="10">
         <f t="shared" si="4"/>
-        <v>345948408</v>
+        <v>132628860</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1995,8 +1995,8 @@
         <v>345</v>
       </c>
       <c r="I9" s="10">
-        <f t="shared" si="4"/>
-        <v>515849608</v>
+        <f>D9*E9</f>
+        <v>198626528</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2030,8 +2030,8 @@
         <v>476</v>
       </c>
       <c r="I10" s="10">
-        <f>D10*D10*D10</f>
-        <v>733870808</v>
+        <f t="shared" si="4"/>
+        <v>268294488</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="I11" s="10">
         <f t="shared" si="4"/>
-        <v>1006012008</v>
+        <v>381812100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2100,8 +2100,8 @@
         <v>828</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="4"/>
-        <v>1338273208</v>
+        <f>D12*E12</f>
+        <v>481023000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="I13" s="10">
         <f t="shared" si="4"/>
-        <v>1736654408</v>
+        <v>659888384</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2170,8 +2170,8 @@
         <v>1564</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" si="4"/>
-        <v>2207155608</v>
+        <f>D14*E14</f>
+        <v>818536152</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2205,8 +2205,8 @@
         <v>1917</v>
       </c>
       <c r="I15" s="10">
-        <f>D15*D15*D15</f>
-        <v>2755776808</v>
+        <f t="shared" si="4"/>
+        <v>1075950880</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2240,8 +2240,8 @@
         <v>2338</v>
       </c>
       <c r="I16" s="10">
-        <f>D16*D16*D16</f>
-        <v>3388518008</v>
+        <f t="shared" si="4"/>
+        <v>1259420992</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2275,8 +2275,8 @@
         <v>2868</v>
       </c>
       <c r="I17" s="10">
-        <f t="shared" si="4"/>
-        <v>4111379208</v>
+        <f>D17*E17</f>
+        <v>1606485600</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
